--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.5087224273235</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H2">
-        <v>22.5087224273235</v>
+        <v>71.364188</v>
       </c>
       <c r="I2">
-        <v>0.961956454466198</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J2">
-        <v>0.961956454466198</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N2">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O2">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P2">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q2">
-        <v>2382.70036704966</v>
+        <v>2561.096236654722</v>
       </c>
       <c r="R2">
-        <v>2382.70036704966</v>
+        <v>15366.57741992834</v>
       </c>
       <c r="S2">
-        <v>0.2710734928414195</v>
+        <v>0.2620717175145778</v>
       </c>
       <c r="T2">
-        <v>0.2710734928414195</v>
+        <v>0.1982701131263652</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.5087224273235</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H3">
-        <v>22.5087224273235</v>
+        <v>71.364188</v>
       </c>
       <c r="I3">
-        <v>0.961956454466198</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J3">
-        <v>0.961956454466198</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N3">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P3">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q3">
-        <v>577.7768698218553</v>
+        <v>652.0718876069129</v>
       </c>
       <c r="R3">
-        <v>577.7768698218553</v>
+        <v>5868.646988462217</v>
       </c>
       <c r="S3">
-        <v>0.06573214003384092</v>
+        <v>0.06672517693100459</v>
       </c>
       <c r="T3">
-        <v>0.06573214003384092</v>
+        <v>0.07572130543474873</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.5087224273235</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H4">
-        <v>22.5087224273235</v>
+        <v>71.364188</v>
       </c>
       <c r="I4">
-        <v>0.961956454466198</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J4">
-        <v>0.961956454466198</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N4">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O4">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P4">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q4">
-        <v>1706.028052695012</v>
+        <v>1957.850973188759</v>
       </c>
       <c r="R4">
-        <v>1706.028052695012</v>
+        <v>17620.65875869883</v>
       </c>
       <c r="S4">
-        <v>0.1940902807272046</v>
+        <v>0.2003428687441156</v>
       </c>
       <c r="T4">
-        <v>0.1940902807272046</v>
+        <v>0.2273538153601798</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.5087224273235</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H5">
-        <v>22.5087224273235</v>
+        <v>71.364188</v>
       </c>
       <c r="I5">
-        <v>0.961956454466198</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J5">
-        <v>0.961956454466198</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N5">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O5">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P5">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q5">
-        <v>1575.594155640402</v>
+        <v>1695.433007457551</v>
       </c>
       <c r="R5">
-        <v>1575.594155640402</v>
+        <v>15258.89706711796</v>
       </c>
       <c r="S5">
-        <v>0.1792511626624806</v>
+        <v>0.1734901773061363</v>
       </c>
       <c r="T5">
-        <v>0.1792511626624806</v>
+        <v>0.1968807474172833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.5087224273235</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H6">
-        <v>22.5087224273235</v>
+        <v>71.364188</v>
       </c>
       <c r="I6">
-        <v>0.961956454466198</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J6">
-        <v>0.961956454466198</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N6">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O6">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P6">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q6">
-        <v>1784.899196468495</v>
+        <v>1980.514471051567</v>
       </c>
       <c r="R6">
-        <v>1784.899196468495</v>
+        <v>17824.6302394641</v>
       </c>
       <c r="S6">
-        <v>0.203063241290244</v>
+        <v>0.20266197793056</v>
       </c>
       <c r="T6">
-        <v>0.203063241290244</v>
+        <v>0.229985595193823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.5087224273235</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H7">
-        <v>22.5087224273235</v>
+        <v>71.364188</v>
       </c>
       <c r="I7">
-        <v>0.961956454466198</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J7">
-        <v>0.961956454466198</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N7">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O7">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P7">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q7">
-        <v>428.4721353336461</v>
+        <v>459.939230046198</v>
       </c>
       <c r="R7">
-        <v>428.4721353336461</v>
+        <v>2759.635380277188</v>
       </c>
       <c r="S7">
-        <v>0.04874613691100845</v>
+        <v>0.04706463671509036</v>
       </c>
       <c r="T7">
-        <v>0.04874613691100845</v>
+        <v>0.03560670695124965</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.890177099593109</v>
+        <v>0.07917266666666667</v>
       </c>
       <c r="H8">
-        <v>0.890177099593109</v>
+        <v>0.237518</v>
       </c>
       <c r="I8">
-        <v>0.03804354553380195</v>
+        <v>0.003169682590154255</v>
       </c>
       <c r="J8">
-        <v>0.03804354553380195</v>
+        <v>0.003207830110201345</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N8">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O8">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P8">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q8">
-        <v>94.23126118277484</v>
+        <v>8.523973620182666</v>
       </c>
       <c r="R8">
-        <v>94.23126118277484</v>
+        <v>51.143841721096</v>
       </c>
       <c r="S8">
-        <v>0.0107204403276673</v>
+        <v>0.0008722407126754877</v>
       </c>
       <c r="T8">
-        <v>0.0107204403276673</v>
+        <v>0.0006598928965540534</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.890177099593109</v>
+        <v>0.07917266666666667</v>
       </c>
       <c r="H9">
-        <v>0.890177099593109</v>
+        <v>0.237518</v>
       </c>
       <c r="I9">
-        <v>0.03804354553380195</v>
+        <v>0.003169682590154255</v>
       </c>
       <c r="J9">
-        <v>0.03804354553380195</v>
+        <v>0.003207830110201345</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N9">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P9">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q9">
-        <v>22.84997470872283</v>
+        <v>2.170259550919556</v>
       </c>
       <c r="R9">
-        <v>22.84997470872283</v>
+        <v>19.532335958276</v>
       </c>
       <c r="S9">
-        <v>0.002599580938203002</v>
+        <v>0.0002220782022251602</v>
       </c>
       <c r="T9">
-        <v>0.002599580938203002</v>
+        <v>0.0002520195847285567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.890177099593109</v>
+        <v>0.07917266666666667</v>
       </c>
       <c r="H10">
-        <v>0.890177099593109</v>
+        <v>0.237518</v>
       </c>
       <c r="I10">
-        <v>0.03804354553380195</v>
+        <v>0.003169682590154255</v>
       </c>
       <c r="J10">
-        <v>0.03804354553380195</v>
+        <v>0.003207830110201345</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N10">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O10">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P10">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q10">
-        <v>67.47016000912625</v>
+        <v>6.516221377728667</v>
       </c>
       <c r="R10">
-        <v>67.47016000912625</v>
+        <v>58.645992399558</v>
       </c>
       <c r="S10">
-        <v>0.007675900918624453</v>
+        <v>0.0006667915495425361</v>
       </c>
       <c r="T10">
-        <v>0.007675900918624453</v>
+        <v>0.0007566907860945491</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.890177099593109</v>
+        <v>0.07917266666666667</v>
       </c>
       <c r="H11">
-        <v>0.890177099593109</v>
+        <v>0.237518</v>
       </c>
       <c r="I11">
-        <v>0.03804354553380195</v>
+        <v>0.003169682590154255</v>
       </c>
       <c r="J11">
-        <v>0.03804354553380195</v>
+        <v>0.003207830110201345</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N11">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O11">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P11">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q11">
-        <v>62.31174781831472</v>
+        <v>5.642828263740667</v>
       </c>
       <c r="R11">
-        <v>62.31174781831472</v>
+        <v>50.785454373666</v>
       </c>
       <c r="S11">
-        <v>0.007089042063261757</v>
+        <v>0.0005774190261003023</v>
       </c>
       <c r="T11">
-        <v>0.007089042063261757</v>
+        <v>0.0006552687373820929</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.890177099593109</v>
+        <v>0.07917266666666667</v>
       </c>
       <c r="H12">
-        <v>0.890177099593109</v>
+        <v>0.237518</v>
       </c>
       <c r="I12">
-        <v>0.03804354553380195</v>
+        <v>0.003169682590154255</v>
       </c>
       <c r="J12">
-        <v>0.03804354553380195</v>
+        <v>0.003207830110201345</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N12">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O12">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P12">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q12">
-        <v>70.58936351934604</v>
+        <v>6.591651209360445</v>
       </c>
       <c r="R12">
-        <v>70.58936351934604</v>
+        <v>59.324860884244</v>
       </c>
       <c r="S12">
-        <v>0.008030764418077162</v>
+        <v>0.0006745101292837629</v>
       </c>
       <c r="T12">
-        <v>0.008030764418077162</v>
+        <v>0.0007654500125363501</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07917266666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.237518</v>
+      </c>
+      <c r="I13">
+        <v>0.003169682590154255</v>
+      </c>
+      <c r="J13">
+        <v>0.003207830110201345</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.3348755</v>
+      </c>
+      <c r="N13">
+        <v>38.66975100000001</v>
+      </c>
+      <c r="O13">
+        <v>0.04941913452582716</v>
+      </c>
+      <c r="P13">
+        <v>0.03694338192314826</v>
+      </c>
+      <c r="Q13">
+        <v>1.530793653003</v>
+      </c>
+      <c r="R13">
+        <v>9.184761918018001</v>
+      </c>
+      <c r="S13">
+        <v>0.0001566429703270054</v>
+      </c>
+      <c r="T13">
+        <v>0.0001185080929057431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.659254</v>
+      </c>
+      <c r="I14">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J14">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>107.663086</v>
+      </c>
+      <c r="N14">
+        <v>215.326172</v>
+      </c>
+      <c r="O14">
+        <v>0.2751823527645522</v>
+      </c>
+      <c r="P14">
+        <v>0.2057131686791961</v>
+      </c>
+      <c r="Q14">
+        <v>23.65910669928133</v>
+      </c>
+      <c r="R14">
+        <v>141.954640195688</v>
+      </c>
+      <c r="S14">
+        <v>0.002420987793742647</v>
+      </c>
+      <c r="T14">
+        <v>0.001831596054298394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.659254</v>
+      </c>
+      <c r="I15">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J15">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>27.41172733333334</v>
+      </c>
+      <c r="N15">
+        <v>82.23518200000001</v>
+      </c>
+      <c r="O15">
+        <v>0.07006323059444025</v>
+      </c>
+      <c r="P15">
+        <v>0.07856388152449204</v>
+      </c>
+      <c r="Q15">
+        <v>6.023763630469778</v>
+      </c>
+      <c r="R15">
+        <v>54.21387267422801</v>
+      </c>
+      <c r="S15">
+        <v>0.0006163993597527167</v>
+      </c>
+      <c r="T15">
+        <v>0.0006995045399112484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.659254</v>
+      </c>
+      <c r="I16">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J16">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>82.303927</v>
+      </c>
+      <c r="N16">
+        <v>246.911781</v>
+      </c>
+      <c r="O16">
+        <v>0.2103654011331419</v>
+      </c>
+      <c r="P16">
+        <v>0.2358886724356653</v>
+      </c>
+      <c r="Q16">
+        <v>18.08639769681933</v>
+      </c>
+      <c r="R16">
+        <v>162.777579271374</v>
+      </c>
+      <c r="S16">
+        <v>0.001850743927627022</v>
+      </c>
+      <c r="T16">
+        <v>0.002100267884943355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.659254</v>
+      </c>
+      <c r="I17">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J17">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>71.272429</v>
+      </c>
+      <c r="N17">
+        <v>213.817287</v>
+      </c>
+      <c r="O17">
+        <v>0.1821693528222338</v>
+      </c>
+      <c r="P17">
+        <v>0.2042716462128862</v>
+      </c>
+      <c r="Q17">
+        <v>15.66221130265533</v>
+      </c>
+      <c r="R17">
+        <v>140.959901723898</v>
+      </c>
+      <c r="S17">
+        <v>0.00160268191308755</v>
+      </c>
+      <c r="T17">
+        <v>0.001818761256806197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.659254</v>
+      </c>
+      <c r="I18">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J18">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>83.25665266666667</v>
+      </c>
+      <c r="N18">
+        <v>249.769958</v>
+      </c>
+      <c r="O18">
+        <v>0.2128005281598046</v>
+      </c>
+      <c r="P18">
+        <v>0.2386192492246123</v>
+      </c>
+      <c r="Q18">
+        <v>18.29576043237022</v>
+      </c>
+      <c r="R18">
+        <v>164.661843891332</v>
+      </c>
+      <c r="S18">
+        <v>0.001872167586333826</v>
+      </c>
+      <c r="T18">
+        <v>0.002124579958422683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.659254</v>
+      </c>
+      <c r="I19">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J19">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>19.3348755</v>
+      </c>
+      <c r="N19">
+        <v>38.66975100000001</v>
+      </c>
+      <c r="O19">
+        <v>0.04941913452582716</v>
+      </c>
+      <c r="P19">
+        <v>0.03694338192314826</v>
+      </c>
+      <c r="Q19">
+        <v>4.248864670959001</v>
+      </c>
+      <c r="R19">
+        <v>25.49318802575401</v>
+      </c>
+      <c r="S19">
+        <v>0.0004347775947926457</v>
+      </c>
+      <c r="T19">
+        <v>0.0003289305832841415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.891119</v>
+      </c>
+      <c r="H20">
+        <v>1.782238</v>
+      </c>
+      <c r="I20">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J20">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>107.663086</v>
+      </c>
+      <c r="N20">
+        <v>215.326172</v>
+      </c>
+      <c r="O20">
+        <v>0.2751823527645522</v>
+      </c>
+      <c r="P20">
+        <v>0.2057131686791961</v>
+      </c>
+      <c r="Q20">
+        <v>95.94062153323399</v>
+      </c>
+      <c r="R20">
+        <v>383.762486132936</v>
+      </c>
+      <c r="S20">
+        <v>0.009817406743556292</v>
+      </c>
+      <c r="T20">
+        <v>0.004951566601978389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.891119</v>
+      </c>
+      <c r="H21">
+        <v>1.782238</v>
+      </c>
+      <c r="I21">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J21">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>27.41172733333334</v>
+      </c>
+      <c r="N21">
+        <v>82.23518200000001</v>
+      </c>
+      <c r="O21">
+        <v>0.07006323059444025</v>
+      </c>
+      <c r="P21">
+        <v>0.07856388152449204</v>
+      </c>
+      <c r="Q21">
+        <v>24.42711104955267</v>
+      </c>
+      <c r="R21">
+        <v>146.562666297316</v>
+      </c>
+      <c r="S21">
+        <v>0.002499576101457774</v>
+      </c>
+      <c r="T21">
+        <v>0.001891051965103501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.891119</v>
+      </c>
+      <c r="H22">
+        <v>1.782238</v>
+      </c>
+      <c r="I22">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J22">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>82.303927</v>
+      </c>
+      <c r="N22">
+        <v>246.911781</v>
+      </c>
+      <c r="O22">
+        <v>0.2103654011331419</v>
+      </c>
+      <c r="P22">
+        <v>0.2358886724356653</v>
+      </c>
+      <c r="Q22">
+        <v>73.342593124313</v>
+      </c>
+      <c r="R22">
+        <v>440.055558745878</v>
+      </c>
+      <c r="S22">
+        <v>0.007504996911856724</v>
+      </c>
+      <c r="T22">
+        <v>0.005677898404447566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.890177099593109</v>
-      </c>
-      <c r="H13">
-        <v>0.890177099593109</v>
-      </c>
-      <c r="I13">
-        <v>0.03804354553380195</v>
-      </c>
-      <c r="J13">
-        <v>0.03804354553380195</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>19.0358265209011</v>
-      </c>
-      <c r="N13">
-        <v>19.0358265209011</v>
-      </c>
-      <c r="O13">
-        <v>0.05067395377897673</v>
-      </c>
-      <c r="P13">
-        <v>0.05067395377897673</v>
-      </c>
-      <c r="Q13">
-        <v>16.94525684073333</v>
-      </c>
-      <c r="R13">
-        <v>16.94525684073333</v>
-      </c>
-      <c r="S13">
-        <v>0.001927816867968276</v>
-      </c>
-      <c r="T13">
-        <v>0.001927816867968276</v>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.891119</v>
+      </c>
+      <c r="H23">
+        <v>1.782238</v>
+      </c>
+      <c r="I23">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J23">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>71.272429</v>
+      </c>
+      <c r="N23">
+        <v>213.817287</v>
+      </c>
+      <c r="O23">
+        <v>0.1821693528222338</v>
+      </c>
+      <c r="P23">
+        <v>0.2042716462128862</v>
+      </c>
+      <c r="Q23">
+        <v>63.51221565805101</v>
+      </c>
+      <c r="R23">
+        <v>381.073293948306</v>
+      </c>
+      <c r="S23">
+        <v>0.006499074576909648</v>
+      </c>
+      <c r="T23">
+        <v>0.004916868801414572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.891119</v>
+      </c>
+      <c r="H24">
+        <v>1.782238</v>
+      </c>
+      <c r="I24">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J24">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>83.25665266666667</v>
+      </c>
+      <c r="N24">
+        <v>249.769958</v>
+      </c>
+      <c r="O24">
+        <v>0.2128005281598046</v>
+      </c>
+      <c r="P24">
+        <v>0.2386192492246123</v>
+      </c>
+      <c r="Q24">
+        <v>74.19158506766733</v>
+      </c>
+      <c r="R24">
+        <v>445.149510406004</v>
+      </c>
+      <c r="S24">
+        <v>0.007591872513626976</v>
+      </c>
+      <c r="T24">
+        <v>0.005743624059830242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.891119</v>
+      </c>
+      <c r="H25">
+        <v>1.782238</v>
+      </c>
+      <c r="I25">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J25">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.3348755</v>
+      </c>
+      <c r="N25">
+        <v>38.66975100000001</v>
+      </c>
+      <c r="O25">
+        <v>0.04941913452582716</v>
+      </c>
+      <c r="P25">
+        <v>0.03694338192314826</v>
+      </c>
+      <c r="Q25">
+        <v>17.2296749206845</v>
+      </c>
+      <c r="R25">
+        <v>68.91869968273801</v>
+      </c>
+      <c r="S25">
+        <v>0.001763077245617141</v>
+      </c>
+      <c r="T25">
+        <v>0.0008892362957087282</v>
       </c>
     </row>
   </sheetData>
